--- a/data/trans_dic/P37A$otros-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37A$otros-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.007246301078767095</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.009720144324871505</v>
+        <v>0.009720144324871503</v>
       </c>
     </row>
     <row r="5">
@@ -710,10 +710,10 @@
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.001512714880430626</v>
+        <v>0.001525065345212869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001974254243534986</v>
+        <v>0.002036212093992751</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004099723458613602</v>
+        <v>0.003719941545483767</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006118437114421455</v>
+        <v>0.006269642017893459</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003368639447075509</v>
+        <v>0.003546342610236151</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.005243351388440819</v>
+        <v>0.005490018156098282</v>
       </c>
     </row>
     <row r="6">
@@ -750,34 +750,34 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01508037470231027</v>
+        <v>0.0155414066471063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01904921979345331</v>
+        <v>0.01876114924129938</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.008178882658485731</v>
+        <v>0.008003864691926058</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01172221632443542</v>
+        <v>0.01077133930078686</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02125983338335551</v>
+        <v>0.02080201475175784</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02192549877157761</v>
+        <v>0.022383269485838</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.003585806320628731</v>
+        <v>0.004243239343273662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.005536229643793666</v>
+        <v>0.005535656767160797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01282665095126169</v>
+        <v>0.01326517577938958</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01629139976034671</v>
+        <v>0.01706433966416466</v>
       </c>
     </row>
     <row r="7">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00616783535326625</v>
+        <v>0.006376535839219015</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -852,22 +852,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0008997752167666947</v>
+        <v>0.0009534697377634763</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008434380159570706</v>
+        <v>0.008616221213735986</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0004696565221098361</v>
+        <v>0.0004686705638279684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001229852396668578</v>
+        <v>0.00126682907201784</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008646224969358372</v>
+        <v>0.008769999974727345</v>
       </c>
     </row>
     <row r="9">
@@ -879,37 +879,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.005163537630660965</v>
+        <v>0.004950120511418518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009713046281038992</v>
+        <v>0.008973380170936464</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02369270102866707</v>
+        <v>0.02568005840612139</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.006843436390909964</v>
+        <v>0.007808730419140892</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.006881462099059454</v>
+        <v>0.006857225747987451</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.008558560870998058</v>
+        <v>0.008771027202703816</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02173418211820898</v>
+        <v>0.0216072910070552</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.003113747684412131</v>
+        <v>0.003419366183114173</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.003936104249963594</v>
+        <v>0.004318632671219512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.006367488757508083</v>
+        <v>0.006678000436158534</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01926533025714568</v>
+        <v>0.01940469604583862</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.01418589523160543</v>
+        <v>0.01418589523160544</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.002048462869101804</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001375792494145383</v>
+        <v>0.001382388081028697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006120559853364444</v>
+        <v>0.005892018452277075</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -987,19 +987,19 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.006310997670237265</v>
+        <v>0.007108879838750532</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0005636689075476889</v>
+        <v>0.0005613697726390014</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0006801606947901437</v>
+        <v>0.0006809130093053041</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.008349625535096878</v>
+        <v>0.008084629918709615</v>
       </c>
     </row>
     <row r="12">
@@ -1010,38 +1010,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009801592944285096</v>
+        <v>0.008882948838349026</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.007125039782036549</v>
+        <v>0.00639394450499364</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01115268680539717</v>
+        <v>0.01248934694247074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02285078148440331</v>
+        <v>0.02256811214349087</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.007953359214865008</v>
+        <v>0.007146013385636228</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.008056007851363525</v>
+        <v>0.008087119775283015</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.02830856166115017</v>
+        <v>0.02656509430581473</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.006013604939201046</v>
+        <v>0.005453579588072269</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.004759078182346448</v>
+        <v>0.004727771444366587</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.006166313274735043</v>
+        <v>0.005516542806548112</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02148130911973869</v>
+        <v>0.02141082761242118</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.002535908160768714</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.004267972456734229</v>
+        <v>0.00426797245673423</v>
       </c>
     </row>
     <row r="14">
@@ -1104,10 +1104,10 @@
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.000843273221154309</v>
+        <v>0.0008458717751724562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001742021302023015</v>
+        <v>0.001551593943043108</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1117,17 +1117,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001537286627491579</v>
+        <v>0.001519671644407062</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0004394730124920639</v>
+        <v>0.0004379418669407025</v>
       </c>
       <c r="L14" s="5" t="inlineStr"/>
       <c r="M14" s="5" t="n">
-        <v>0.000803878753804655</v>
+        <v>0.0007998978781501675</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.00230220453552956</v>
+        <v>0.002047104998156756</v>
       </c>
     </row>
     <row r="15">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.006251434630524821</v>
+        <v>0.005652181711424368</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.0121534151668681</v>
+        <v>0.01082313894692749</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01088269072328461</v>
+        <v>0.01149939704797971</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.004247809046918359</v>
+        <v>0.005465638808886917</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.007367441492688797</v>
+        <v>0.007666861786183601</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.007705080024936057</v>
+        <v>0.00817663462797007</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.003974734234175941</v>
+        <v>0.003584206359136513</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>0.006990195390041427</v>
+        <v>0.006661379389142828</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.007794813744450913</v>
+        <v>0.007535828484954032</v>
       </c>
     </row>
     <row r="16">
@@ -1189,7 +1189,7 @@
         <v>0.003705843536354739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.009304857811204256</v>
+        <v>0.009304857811204255</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.00123473881142692</v>
@@ -1213,7 +1213,7 @@
         <v>0.003497415942638065</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.009908743652142475</v>
+        <v>0.009908743652142471</v>
       </c>
     </row>
     <row r="17">
@@ -1224,40 +1224,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0002693537033697703</v>
+        <v>0.0002652827796223801</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001908215248224411</v>
+        <v>0.001854016867011989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00636393247469071</v>
+        <v>0.006320184992850576</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0002929374524505126</v>
+        <v>0.0003885584790671905</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0005581612647865218</v>
+        <v>0.0005480701302000877</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001788119160726037</v>
+        <v>0.001746150669219554</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007827818658528562</v>
+        <v>0.007920205978707384</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0005145551213557105</v>
+        <v>0.0005282195708414597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0004238992720510955</v>
+        <v>0.0004474408532681308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002219199395015459</v>
+        <v>0.00227129287474801</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.007721699397380198</v>
+        <v>0.00775315108588155</v>
       </c>
     </row>
     <row r="18">
@@ -1268,40 +1268,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.002520631719592284</v>
+        <v>0.002493271250658491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.00198003213668661</v>
+        <v>0.002063150028326012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006636762364796529</v>
+        <v>0.006607660991285741</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01385215385745679</v>
+        <v>0.01386230002536737</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.002946339723928275</v>
+        <v>0.003288383968618526</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.003341852054076225</v>
+        <v>0.003388041014813208</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.005933446970710551</v>
+        <v>0.005818055545248589</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01434917173141325</v>
+        <v>0.01465375677489759</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.002261977869129661</v>
+        <v>0.002285702454601631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.00212103269004861</v>
+        <v>0.002063724531528434</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.00514908710837895</v>
+        <v>0.005275412355832646</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01293613886144544</v>
+        <v>0.01275045990228167</v>
       </c>
     </row>
     <row r="19">
@@ -1574,10 +1574,10 @@
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1364</v>
+        <v>1406</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2758</v>
+        <v>2503</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4492</v>
+        <v>4603</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4540</v>
+        <v>4779</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7471</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="7">
@@ -1614,34 +1614,34 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>10176</v>
+        <v>10487</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13157</v>
+        <v>12959</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5630</v>
+        <v>5509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8171</v>
+        <v>7508</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14304</v>
+        <v>13996</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16097</v>
+        <v>16433</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4957</v>
+        <v>5866</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7754</v>
+        <v>7753</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17286</v>
+        <v>17877</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23213</v>
+        <v>24315</v>
       </c>
     </row>
     <row r="8">
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6470</v>
+        <v>6688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1760,22 +1760,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>938</v>
+        <v>994</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9037</v>
+        <v>9232</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2540</v>
+        <v>2616</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18333</v>
+        <v>18596</v>
       </c>
     </row>
     <row r="11">
@@ -1787,37 +1787,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5256</v>
+        <v>5039</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9931</v>
+        <v>9175</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24852</v>
+        <v>26936</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6627</v>
+        <v>7562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7103</v>
+        <v>7078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8926</v>
+        <v>9147</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23288</v>
+        <v>23152</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6010</v>
+        <v>6600</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8070</v>
+        <v>8854</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13151</v>
+        <v>13792</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>40850</v>
+        <v>41146</v>
       </c>
     </row>
     <row r="12">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4915</v>
+        <v>4732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1939,19 +1939,19 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>5126</v>
+        <v>5774</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>13487</v>
+        <v>13059</v>
       </c>
     </row>
     <row r="15">
@@ -1962,38 +1962,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6650</v>
+        <v>6027</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5398</v>
+        <v>4844</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8471</v>
+        <v>9486</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18351</v>
+        <v>18124</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5439</v>
+        <v>4887</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6261</v>
+        <v>6285</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>22994</v>
+        <v>21578</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8193</v>
+        <v>7430</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7304</v>
+        <v>7256</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9524</v>
+        <v>8521</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34699</v>
+        <v>34586</v>
       </c>
     </row>
     <row r="16">
@@ -2100,10 +2100,10 @@
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1725</v>
+        <v>1536</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2113,17 +2113,17 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1720</v>
+        <v>1701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="L18" s="6" t="inlineStr"/>
       <c r="M18" s="6" t="n">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4856</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="19">
@@ -2134,34 +2134,34 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5890</v>
+        <v>5326</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>11395</v>
+        <v>10147</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10775</v>
+        <v>11385</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4412</v>
+        <v>5677</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>7690</v>
+        <v>8003</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8622</v>
+        <v>9150</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7873</v>
+        <v>7100</v>
       </c>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="n">
-        <v>13850</v>
+        <v>13198</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16440</v>
+        <v>15894</v>
       </c>
     </row>
     <row r="20">
@@ -2264,40 +2264,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6477</v>
+        <v>6293</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22482</v>
+        <v>22328</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>990</v>
+        <v>1313</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1986</v>
+        <v>1950</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6338</v>
+        <v>6189</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29252</v>
+        <v>29597</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2961</v>
+        <v>3125</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15399</v>
+        <v>15760</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>56135</v>
+        <v>56363</v>
       </c>
     </row>
     <row r="23">
@@ -2308,40 +2308,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8259</v>
+        <v>8169</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6785</v>
+        <v>7070</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>22527</v>
+        <v>22429</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48936</v>
+        <v>48972</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9956</v>
+        <v>11112</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11891</v>
+        <v>12056</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21031</v>
+        <v>20622</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>53622</v>
+        <v>54760</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15055</v>
+        <v>15213</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14816</v>
+        <v>14415</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>35729</v>
+        <v>36606</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>94042</v>
+        <v>92692</v>
       </c>
     </row>
     <row r="24">
